--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.5711047272213461</v>
+        <v>-0.5616080510579985</v>
       </c>
       <c r="C2">
-        <v>0.1781876843318972</v>
+        <v>0.1593188804880037</v>
       </c>
       <c r="D2">
-        <v>-0.5591429563943221</v>
+        <v>-0.549633044125851</v>
       </c>
       <c r="E2">
         <v>-0.05752705180337387</v>
       </c>
       <c r="F2">
-        <v>0.4028827311704727</v>
+        <v>0.4122776954696132</v>
       </c>
       <c r="G2">
-        <v>0.7438987582370427</v>
+        <v>0.7251028904350592</v>
       </c>
       <c r="H2">
-        <v>-0.162816220256539</v>
+        <v>-0.1532996908165208</v>
       </c>
       <c r="I2">
-        <v>-0.8926948733728854</v>
+        <v>-0.8832117059949898</v>
       </c>
       <c r="J2">
-        <v>0.7788958484159243</v>
+        <v>0.7789673903946376</v>
       </c>
       <c r="K2">
-        <v>0.1786740433907503</v>
+        <v>0.1597481019993938</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1606335629719328</v>
+        <v>0.1417647591280393</v>
       </c>
       <c r="C3">
-        <v>-0.5766970777542865</v>
+        <v>-0.5671871654858154</v>
       </c>
       <c r="D3">
         <v>-0.07508117316333833</v>
       </c>
       <c r="E3">
-        <v>0.3853286098105083</v>
+        <v>0.3947235741096488</v>
       </c>
       <c r="F3">
-        <v>0.7263446368770783</v>
+        <v>0.7075487690750948</v>
       </c>
       <c r="G3">
-        <v>-0.1803703416165034</v>
+        <v>-0.1708538121764852</v>
       </c>
       <c r="H3">
-        <v>-0.9102489947328498</v>
+        <v>-0.9007658273549541</v>
       </c>
       <c r="I3">
-        <v>0.7613417270559599</v>
+        <v>0.7614132690346732</v>
       </c>
       <c r="J3">
-        <v>0.1611199220307859</v>
+        <v>0.1421939806394294</v>
       </c>
       <c r="K3">
-        <v>0.3700487603523616</v>
+        <v>0.379497744259143</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,31 +559,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.4885897588032803</v>
+        <v>-0.4790798465348092</v>
       </c>
       <c r="C4">
         <v>0.01302614578766791</v>
       </c>
       <c r="D4">
-        <v>0.4734359287615145</v>
+        <v>0.482830893060655</v>
       </c>
       <c r="E4">
-        <v>0.8144519558280845</v>
+        <v>0.795656088026101</v>
       </c>
       <c r="F4">
-        <v>-0.09226302266549719</v>
+        <v>-0.082746493225479</v>
       </c>
       <c r="G4">
-        <v>-0.8221416757818436</v>
+        <v>-0.8126585084039479</v>
       </c>
       <c r="H4">
-        <v>0.8494490460069661</v>
+        <v>0.8495205879856794</v>
       </c>
       <c r="I4">
-        <v>0.2492272409817921</v>
+        <v>0.2303012995904356</v>
       </c>
       <c r="J4">
-        <v>0.4581560793033678</v>
+        <v>0.4676050632101492</v>
       </c>
       <c r="K4">
         <v>0.3643276933347375</v>
@@ -597,31 +597,31 @@
         <v>0.1916007792754515</v>
       </c>
       <c r="C5">
-        <v>0.6520105622492981</v>
+        <v>0.6614055265484386</v>
       </c>
       <c r="D5">
-        <v>0.9930265893158681</v>
+        <v>0.9742307215138846</v>
       </c>
       <c r="E5">
-        <v>0.08631161082228642</v>
+        <v>0.0958281402623046</v>
       </c>
       <c r="F5">
-        <v>-0.64356704229406</v>
+        <v>-0.6340838749161644</v>
       </c>
       <c r="G5">
-        <v>1.02802367949475</v>
+        <v>1.028095221473463</v>
       </c>
       <c r="H5">
-        <v>0.4278018744695757</v>
+        <v>0.4088759330782192</v>
       </c>
       <c r="I5">
-        <v>0.6367307127911515</v>
+        <v>0.6461796966979327</v>
       </c>
       <c r="J5">
         <v>0.542902326822521</v>
       </c>
       <c r="K5">
-        <v>-0.2964287974042856</v>
+        <v>-0.2486961005069136</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.564037790001948</v>
+        <v>1.573432754301089</v>
       </c>
       <c r="C6">
-        <v>1.905053817068518</v>
+        <v>1.886257949266535</v>
       </c>
       <c r="D6">
-        <v>0.9983388385749364</v>
+        <v>1.007855368014955</v>
       </c>
       <c r="E6">
-        <v>0.26846018545859</v>
+        <v>0.2779433528364856</v>
       </c>
       <c r="F6">
-        <v>1.9400509072474</v>
+        <v>1.940122449226113</v>
       </c>
       <c r="G6">
-        <v>1.339829102222226</v>
+        <v>1.320903160830869</v>
       </c>
       <c r="H6">
-        <v>1.548757940543801</v>
+        <v>1.558206924450583</v>
       </c>
       <c r="I6">
         <v>1.454929554575171</v>
       </c>
       <c r="J6">
-        <v>0.6155984303483644</v>
+        <v>0.6633311272457364</v>
       </c>
       <c r="K6">
-        <v>1.378198724973394</v>
+        <v>1.273820034913197</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9610795811027613</v>
+        <v>0.9422837133007778</v>
       </c>
       <c r="C7">
-        <v>0.05436460260917961</v>
+        <v>0.06388113204919779</v>
       </c>
       <c r="D7">
-        <v>-0.6755140505071668</v>
+        <v>-0.6660308831292712</v>
       </c>
       <c r="E7">
-        <v>0.9960766712816429</v>
+        <v>0.9961482132603562</v>
       </c>
       <c r="F7">
-        <v>0.3958548662564689</v>
+        <v>0.3769289248651124</v>
       </c>
       <c r="G7">
-        <v>0.6047837045780446</v>
+        <v>0.6142326884848259</v>
       </c>
       <c r="H7">
         <v>0.5109553186094142</v>
       </c>
       <c r="I7">
-        <v>-0.3283758056173924</v>
+        <v>-0.2806431087200204</v>
       </c>
       <c r="J7">
-        <v>0.4342244890076376</v>
+        <v>0.3298457989474406</v>
+      </c>
+      <c r="K7">
+        <v>0.1683237681281231</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.05833250012228872</v>
+        <v>0.0678490295623069</v>
       </c>
       <c r="C8">
-        <v>-0.6715461529940577</v>
+        <v>-0.6620629856161621</v>
       </c>
       <c r="D8">
-        <v>1.000044568794752</v>
+        <v>1.000116110773465</v>
       </c>
       <c r="E8">
-        <v>0.399822763769578</v>
+        <v>0.3808968223782215</v>
       </c>
       <c r="F8">
-        <v>0.6087516020911536</v>
+        <v>0.6182005859979351</v>
       </c>
       <c r="G8">
         <v>0.5149232161225235</v>
       </c>
       <c r="H8">
-        <v>-0.3244079081042833</v>
+        <v>-0.2766752112069113</v>
       </c>
       <c r="I8">
-        <v>0.4381923865207467</v>
+        <v>0.3338136964605497</v>
+      </c>
+      <c r="J8">
+        <v>0.1722916656412322</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5359060628238164</v>
+        <v>-0.5264228954459207</v>
       </c>
       <c r="C9">
-        <v>1.135684658964993</v>
+        <v>1.135756200943707</v>
       </c>
       <c r="D9">
-        <v>0.5354628539398194</v>
+        <v>0.5165369125484629</v>
       </c>
       <c r="E9">
-        <v>0.7443916922613951</v>
+        <v>0.7538406761681764</v>
       </c>
       <c r="F9">
         <v>0.6505633062927647</v>
       </c>
       <c r="G9">
-        <v>-0.188767817934042</v>
+        <v>-0.1410351210366699</v>
       </c>
       <c r="H9">
-        <v>0.5738324766909881</v>
+        <v>0.4694537866307911</v>
+      </c>
+      <c r="I9">
+        <v>0.3079317558114735</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.8948784771093287</v>
+        <v>0.8949500190880419</v>
       </c>
       <c r="C10">
-        <v>0.2946566720841547</v>
+        <v>0.2757307306927982</v>
       </c>
       <c r="D10">
-        <v>0.5035855104057304</v>
+        <v>0.5130344943125118</v>
       </c>
       <c r="E10">
         <v>0.4097571244371001</v>
       </c>
       <c r="F10">
-        <v>-0.4295739997897067</v>
+        <v>-0.3818413028923346</v>
       </c>
       <c r="G10">
-        <v>0.3330262948353234</v>
+        <v>0.2286476047751264</v>
+      </c>
+      <c r="H10">
+        <v>0.06712557395580883</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2493254568320583</v>
+        <v>0.2303995154407018</v>
       </c>
       <c r="C11">
-        <v>0.458254295153634</v>
+        <v>0.4677032790604154</v>
       </c>
       <c r="D11">
         <v>0.3644259091850037</v>
       </c>
       <c r="E11">
-        <v>-0.474905215041803</v>
+        <v>-0.427172518144431</v>
       </c>
       <c r="F11">
-        <v>0.287695079583227</v>
+        <v>0.18331638952303</v>
+      </c>
+      <c r="G11">
+        <v>0.02179435870371246</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3913928732175802</v>
+        <v>0.4008418571243615</v>
       </c>
       <c r="C12">
         <v>0.2975644872489498</v>
       </c>
       <c r="D12">
-        <v>-0.5417666369778569</v>
+        <v>-0.4940339400804848</v>
       </c>
       <c r="E12">
-        <v>0.2208336576471732</v>
+        <v>0.1164549675869761</v>
+      </c>
+      <c r="F12">
+        <v>-0.04506706323234141</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,10 +832,13 @@
         <v>0.2679782848922332</v>
       </c>
       <c r="C13">
-        <v>-0.5713528393345735</v>
+        <v>-0.5236201424372015</v>
       </c>
       <c r="D13">
-        <v>0.1912474552904566</v>
+        <v>0.08686876523025952</v>
+      </c>
+      <c r="E13">
+        <v>-0.07465326558905801</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5895034960642144</v>
+        <v>-0.5417707991668423</v>
       </c>
       <c r="C14">
-        <v>0.1730967985608157</v>
+        <v>0.06871810850061863</v>
+      </c>
+      <c r="D14">
+        <v>-0.0928039223186989</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1550649743121164</v>
+        <v>0.0506862842519193</v>
+      </c>
+      <c r="C15">
+        <v>-0.1108357465673982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.5616080510579985</v>
+        <v>0.1593188804880037</v>
       </c>
       <c r="C2">
-        <v>0.1593188804880037</v>
+        <v>-0.549633044125851</v>
       </c>
       <c r="D2">
-        <v>-0.549633044125851</v>
+        <v>-0.05752705180337387</v>
       </c>
       <c r="E2">
-        <v>-0.05752705180337387</v>
+        <v>0.4122776954696132</v>
       </c>
       <c r="F2">
-        <v>0.4122776954696132</v>
+        <v>0.7251028904350592</v>
       </c>
       <c r="G2">
-        <v>0.7251028904350592</v>
+        <v>-0.1532996908165208</v>
       </c>
       <c r="H2">
-        <v>-0.1532996908165208</v>
+        <v>-0.8832117059949898</v>
       </c>
       <c r="I2">
-        <v>-0.8832117059949898</v>
+        <v>0.7789673903946376</v>
       </c>
       <c r="J2">
-        <v>0.7789673903946376</v>
+        <v>0.1597481019993938</v>
       </c>
       <c r="K2">
-        <v>0.1597481019993938</v>
+        <v>0.3970518656191074</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1417647591280393</v>
+        <v>-0.5671871654858154</v>
       </c>
       <c r="C3">
-        <v>-0.5671871654858154</v>
+        <v>-0.07508117316333833</v>
       </c>
       <c r="D3">
-        <v>-0.07508117316333833</v>
+        <v>0.3947235741096488</v>
       </c>
       <c r="E3">
-        <v>0.3947235741096488</v>
+        <v>0.7075487690750948</v>
       </c>
       <c r="F3">
-        <v>0.7075487690750948</v>
+        <v>-0.1708538121764852</v>
       </c>
       <c r="G3">
-        <v>-0.1708538121764852</v>
+        <v>-0.9007658273549541</v>
       </c>
       <c r="H3">
-        <v>-0.9007658273549541</v>
+        <v>0.7614132690346732</v>
       </c>
       <c r="I3">
-        <v>0.7614132690346732</v>
+        <v>0.1421939806394294</v>
       </c>
       <c r="J3">
-        <v>0.1421939806394294</v>
+        <v>0.379497744259143</v>
       </c>
       <c r="K3">
-        <v>0.379497744259143</v>
+        <v>0.2762203743837313</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.4790798465348092</v>
+        <v>0.01302614578766791</v>
       </c>
       <c r="C4">
-        <v>0.01302614578766791</v>
+        <v>0.482830893060655</v>
       </c>
       <c r="D4">
-        <v>0.482830893060655</v>
+        <v>0.795656088026101</v>
       </c>
       <c r="E4">
-        <v>0.795656088026101</v>
+        <v>-0.082746493225479</v>
       </c>
       <c r="F4">
-        <v>-0.082746493225479</v>
+        <v>-0.8126585084039479</v>
       </c>
       <c r="G4">
-        <v>-0.8126585084039479</v>
+        <v>0.8495205879856794</v>
       </c>
       <c r="H4">
-        <v>0.8495205879856794</v>
+        <v>0.2303012995904356</v>
       </c>
       <c r="I4">
-        <v>0.2303012995904356</v>
+        <v>0.4676050632101492</v>
       </c>
       <c r="J4">
-        <v>0.4676050632101492</v>
+        <v>0.3643276933347375</v>
       </c>
       <c r="K4">
-        <v>0.3643276933347375</v>
+        <v>-0.4272707339946972</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1916007792754515</v>
+        <v>0.6614055265484386</v>
       </c>
       <c r="C5">
-        <v>0.6614055265484386</v>
+        <v>0.9742307215138846</v>
       </c>
       <c r="D5">
-        <v>0.9742307215138846</v>
+        <v>0.0958281402623046</v>
       </c>
       <c r="E5">
-        <v>0.0958281402623046</v>
+        <v>-0.6340838749161644</v>
       </c>
       <c r="F5">
-        <v>-0.6340838749161644</v>
+        <v>1.028095221473463</v>
       </c>
       <c r="G5">
-        <v>1.028095221473463</v>
+        <v>0.4088759330782192</v>
       </c>
       <c r="H5">
-        <v>0.4088759330782192</v>
+        <v>0.6461796966979327</v>
       </c>
       <c r="I5">
-        <v>0.6461796966979327</v>
+        <v>0.542902326822521</v>
       </c>
       <c r="J5">
-        <v>0.542902326822521</v>
+        <v>-0.2486961005069136</v>
       </c>
       <c r="K5">
-        <v>-0.2486961005069136</v>
+        <v>0.3617928071605474</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.573432754301089</v>
+        <v>1.886257949266535</v>
       </c>
       <c r="C6">
-        <v>1.886257949266535</v>
+        <v>1.007855368014955</v>
       </c>
       <c r="D6">
-        <v>1.007855368014955</v>
+        <v>0.2779433528364856</v>
       </c>
       <c r="E6">
-        <v>0.2779433528364856</v>
+        <v>1.940122449226113</v>
       </c>
       <c r="F6">
-        <v>1.940122449226113</v>
+        <v>1.320903160830869</v>
       </c>
       <c r="G6">
-        <v>1.320903160830869</v>
+        <v>1.558206924450583</v>
       </c>
       <c r="H6">
-        <v>1.558206924450583</v>
+        <v>1.454929554575171</v>
       </c>
       <c r="I6">
-        <v>1.454929554575171</v>
+        <v>0.6633311272457364</v>
       </c>
       <c r="J6">
-        <v>0.6633311272457364</v>
+        <v>1.273820034913197</v>
       </c>
       <c r="K6">
-        <v>1.273820034913197</v>
+        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,33 +664,30 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9422837133007778</v>
+        <v>0.06388113204919779</v>
       </c>
       <c r="C7">
-        <v>0.06388113204919779</v>
+        <v>-0.6660308831292712</v>
       </c>
       <c r="D7">
-        <v>-0.6660308831292712</v>
+        <v>0.9961482132603562</v>
       </c>
       <c r="E7">
-        <v>0.9961482132603562</v>
+        <v>0.3769289248651124</v>
       </c>
       <c r="F7">
-        <v>0.3769289248651124</v>
+        <v>0.6142326884848259</v>
       </c>
       <c r="G7">
-        <v>0.6142326884848259</v>
+        <v>0.5109553186094142</v>
       </c>
       <c r="H7">
-        <v>0.5109553186094142</v>
+        <v>-0.2806431087200204</v>
       </c>
       <c r="I7">
-        <v>-0.2806431087200204</v>
+        <v>0.3298457989474406</v>
       </c>
       <c r="J7">
-        <v>0.3298457989474406</v>
-      </c>
-      <c r="K7">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -699,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.0678490295623069</v>
+        <v>-0.6620629856161621</v>
       </c>
       <c r="C8">
-        <v>-0.6620629856161621</v>
+        <v>1.000116110773465</v>
       </c>
       <c r="D8">
-        <v>1.000116110773465</v>
+        <v>0.3808968223782215</v>
       </c>
       <c r="E8">
-        <v>0.3808968223782215</v>
+        <v>0.6182005859979351</v>
       </c>
       <c r="F8">
-        <v>0.6182005859979351</v>
+        <v>0.5149232161225235</v>
       </c>
       <c r="G8">
-        <v>0.5149232161225235</v>
+        <v>-0.2766752112069113</v>
       </c>
       <c r="H8">
-        <v>-0.2766752112069113</v>
+        <v>0.3338136964605497</v>
       </c>
       <c r="I8">
-        <v>0.3338136964605497</v>
-      </c>
-      <c r="J8">
         <v>0.1722916656412322</v>
       </c>
     </row>
@@ -731,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5264228954459207</v>
+        <v>1.135756200943707</v>
       </c>
       <c r="C9">
-        <v>1.135756200943707</v>
+        <v>0.5165369125484629</v>
       </c>
       <c r="D9">
-        <v>0.5165369125484629</v>
+        <v>0.7538406761681764</v>
       </c>
       <c r="E9">
-        <v>0.7538406761681764</v>
+        <v>0.6505633062927647</v>
       </c>
       <c r="F9">
-        <v>0.6505633062927647</v>
+        <v>-0.1410351210366699</v>
       </c>
       <c r="G9">
-        <v>-0.1410351210366699</v>
+        <v>0.4694537866307911</v>
       </c>
       <c r="H9">
-        <v>0.4694537866307911</v>
-      </c>
-      <c r="I9">
         <v>0.3079317558114735</v>
       </c>
     </row>
@@ -760,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.8949500190880419</v>
+        <v>0.2757307306927982</v>
       </c>
       <c r="C10">
-        <v>0.2757307306927982</v>
+        <v>0.5130344943125118</v>
       </c>
       <c r="D10">
-        <v>0.5130344943125118</v>
+        <v>0.4097571244371001</v>
       </c>
       <c r="E10">
-        <v>0.4097571244371001</v>
+        <v>-0.3818413028923346</v>
       </c>
       <c r="F10">
-        <v>-0.3818413028923346</v>
+        <v>0.2286476047751264</v>
       </c>
       <c r="G10">
-        <v>0.2286476047751264</v>
-      </c>
-      <c r="H10">
         <v>0.06712557395580883</v>
       </c>
     </row>
@@ -786,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2303995154407018</v>
+        <v>0.4677032790604154</v>
       </c>
       <c r="C11">
-        <v>0.4677032790604154</v>
+        <v>0.3644259091850037</v>
       </c>
       <c r="D11">
-        <v>0.3644259091850037</v>
+        <v>-0.427172518144431</v>
       </c>
       <c r="E11">
-        <v>-0.427172518144431</v>
+        <v>0.18331638952303</v>
       </c>
       <c r="F11">
-        <v>0.18331638952303</v>
-      </c>
-      <c r="G11">
         <v>0.02179435870371246</v>
       </c>
     </row>
@@ -809,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4008418571243615</v>
+        <v>0.2975644872489498</v>
       </c>
       <c r="C12">
-        <v>0.2975644872489498</v>
+        <v>-0.4940339400804848</v>
       </c>
       <c r="D12">
-        <v>-0.4940339400804848</v>
+        <v>0.1164549675869761</v>
       </c>
       <c r="E12">
-        <v>0.1164549675869761</v>
-      </c>
-      <c r="F12">
         <v>-0.04506706323234141</v>
       </c>
     </row>
@@ -829,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2679782848922332</v>
+        <v>-0.5236201424372015</v>
       </c>
       <c r="C13">
-        <v>-0.5236201424372015</v>
+        <v>0.08686876523025952</v>
       </c>
       <c r="D13">
-        <v>0.08686876523025952</v>
-      </c>
-      <c r="E13">
         <v>-0.07465326558905801</v>
       </c>
     </row>
@@ -846,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5417707991668423</v>
+        <v>0.06871810850061863</v>
       </c>
       <c r="C14">
-        <v>0.06871810850061863</v>
-      </c>
-      <c r="D14">
         <v>-0.0928039223186989</v>
       </c>
     </row>
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0506862842519193</v>
-      </c>
-      <c r="C15">
         <v>-0.1108357465673982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.5616080510579985</v>
+      </c>
+      <c r="C2">
         <v>0.1593188804880037</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.549633044125851</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.05752705180337387</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4122776954696132</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.7251028904350592</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.1532996908165208</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.8832117059949898</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.7789673903946376</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1597481019993938</v>
-      </c>
-      <c r="K2">
-        <v>0.3970518656191074</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.1417647591280393</v>
+      </c>
+      <c r="C3">
         <v>-0.5671871654858154</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.07508117316333833</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3947235741096488</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.7075487690750948</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.1708538121764852</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.9007658273549541</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.7614132690346732</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1421939806394294</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.379497744259143</v>
-      </c>
-      <c r="K3">
-        <v>0.2762203743837313</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.4790798465348092</v>
+      </c>
+      <c r="C4">
         <v>0.01302614578766791</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.482830893060655</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.795656088026101</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.082746493225479</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.8126585084039479</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.8495205879856794</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.2303012995904356</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.4676050632101492</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.3643276933347375</v>
-      </c>
-      <c r="K4">
-        <v>-0.4272707339946972</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.1916007792754515</v>
+      </c>
+      <c r="C5">
         <v>0.6614055265484386</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.9742307215138846</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.0958281402623046</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.6340838749161644</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.028095221473463</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4088759330782192</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.6461796966979327</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.542902326822521</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.2486961005069136</v>
-      </c>
-      <c r="K5">
-        <v>0.3617928071605474</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.573432754301089</v>
+      </c>
+      <c r="C6">
         <v>1.886257949266535</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.007855368014955</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2779433528364856</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.940122449226113</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.320903160830869</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.558206924450583</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.454929554575171</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.6633311272457364</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.273820034913197</v>
-      </c>
-      <c r="K6">
-        <v>1.11229800409388</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.9422837133007778</v>
+      </c>
+      <c r="C7">
         <v>0.06388113204919779</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.6660308831292712</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9961482132603562</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3769289248651124</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.6142326884848259</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.5109553186094142</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.2806431087200204</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.3298457989474406</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.1683237681281231</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.0678490295623069</v>
+      </c>
+      <c r="C8">
         <v>-0.6620629856161621</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.000116110773465</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3808968223782215</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.6182005859979351</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5149232161225235</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.2766752112069113</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.3338136964605497</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.1722916656412322</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.5264228954459207</v>
+      </c>
+      <c r="C9">
         <v>1.135756200943707</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.5165369125484629</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.7538406761681764</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.6505633062927647</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.1410351210366699</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4694537866307911</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3079317558114735</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.8949500190880419</v>
+      </c>
+      <c r="C10">
         <v>0.2757307306927982</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.5130344943125118</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4097571244371001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.3818413028923346</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.2286476047751264</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.06712557395580883</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.2303995154407018</v>
+      </c>
+      <c r="C11">
         <v>0.4677032790604154</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3644259091850037</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.427172518144431</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.18331638952303</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.02179435870371246</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.4008418571243615</v>
+      </c>
+      <c r="C12">
         <v>0.2975644872489498</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.4940339400804848</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1164549675869761</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.04506706323234141</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.2679782848922332</v>
+      </c>
+      <c r="C13">
         <v>-0.5236201424372015</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.08686876523025952</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.07465326558905801</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.5417707991668423</v>
+      </c>
+      <c r="C14">
         <v>0.06871810850061863</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.0928039223186989</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.0506862842519193</v>
+      </c>
+      <c r="C15">
         <v>-0.1108357465673982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.1624199859130616</v>
       </c>
     </row>
   </sheetData>
